--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\green - 1차 프로젝트\웹 페이지 그림 - prototype\데이터베이스 테이블\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C40C7-72AF-4110-878A-F1CE49412D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,409 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employment_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디폴트 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재직 상태 플래그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employees - 직원 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Departments - 부서 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해 연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over_leave_cnt</t>
+  </si>
+  <si>
+    <t>남은 연차 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 연차 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자(소수1자리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK, PK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_leave_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=퇴사,1=재직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무형태코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkType - 근무형태 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnualLeave - 연차 관리 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색용 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address - 주소 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 번호 시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차사용횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NEXTVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_History - 연차 사용 기록 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조퇴 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각/결석/조퇴 플래그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atte_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atte_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atte_stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ness_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendance_Record - 출퇴근 기록 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=정상출근, 1=지각, 2=결석, 3=조퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ness_flag = 1 / 9시 넘어서 출석 체크가 되면 ness_flag 가 0 으로 INSERT 되게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ness_flag = 2 / 퇴근 시각이 될 때 까지 출석 체크가 안되면 관리자가 결석처리하면 INSERT 되게 (또는 트리거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ness_flag = 3 / 관리자가 조퇴 신청을 승인하면 그 신청서에 쓰여진 시간으로 UPDATE 하고 근무한 시간까지 계산해서 UPDATE 하고 이때 퇴근 시각 = 조퇴 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 시각부터 퇴근 시각까지 시간을 계산해서 일일 최대 근로 시간인 8시간 보다 많으면 8시간으로 세팅 / 7시간 ~ 8시간인 경우 7시간으로 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +434,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -45,15 +530,705 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1505,1054 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="9" max="15" width="15.625" style="1"/>
+    <col min="16" max="16" width="40.5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="15.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6">
+        <v>320</v>
+      </c>
+      <c r="K5" s="6">
+        <v>300</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="G10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <v>30</v>
+      </c>
+      <c r="E14" s="11">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="33">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="I19" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>13</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="5">
+        <v>7</v>
+      </c>
+      <c r="K23" s="6">
+        <v>80</v>
+      </c>
+      <c r="L23" s="6">
+        <v>80</v>
+      </c>
+      <c r="M23" s="6">
+        <v>80</v>
+      </c>
+      <c r="N23" s="6">
+        <v>80</v>
+      </c>
+      <c r="O23" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="6">
+        <v>15</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="I26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="I28" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6">
+        <v>13</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="11"/>
+      <c r="I32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6">
+        <v>13</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11"/>
+      <c r="I34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="I35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+    </row>
+    <row r="37" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+    </row>
+    <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+    </row>
+    <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="50"/>
+    </row>
+    <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="I37:P37"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="I19:O19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\green - 1차 프로젝트\웹 페이지 그림 - prototype\데이터베이스 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C40C7-72AF-4110-878A-F1CE49412D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59031F53-377C-4656-BF4F-35582C0E30BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,6 +419,146 @@
   </si>
   <si>
     <t>출근 시각부터 퇴근 시각까지 시간을 계산해서 일일 최대 근로 시간인 8시간 보다 많으면 8시간으로 세팅 / 7시간 ~ 8시간인 경우 7시간으로 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ness_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지/결/조 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유서 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK1, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateness - 지각/결석/조퇴 사유서 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NEXTVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice - 공지사항 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,24 +1279,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,6 +1291,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,21 +1319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,10 +1348,25 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1527,20 +1670,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
@@ -1697,7 +1840,7 @@
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1715,7 +1858,7 @@
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -1772,17 +1915,17 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="G10" s="30" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="G10" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
@@ -1795,12 +1938,12 @@
         <v>32</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="29" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="21" t="s">
@@ -1823,7 +1966,7 @@
       <c r="G12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="28" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="17" t="s">
@@ -1846,7 +1989,7 @@
       <c r="G13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -1869,7 +2012,7 @@
       <c r="G14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="27">
         <v>1</v>
       </c>
       <c r="I14" s="11">
@@ -1886,13 +2029,13 @@
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="32" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -1909,7 +2052,7 @@
       <c r="G16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="33"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1926,30 +2069,30 @@
       <c r="G17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="I19" s="37" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="I19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
@@ -1958,7 +2101,7 @@
       <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
@@ -1997,7 +2140,7 @@
       <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2036,7 +2179,7 @@
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2075,7 +2218,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
@@ -2112,7 +2255,7 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2131,13 +2274,13 @@
       <c r="K24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="43" t="s">
+      <c r="L24" s="31" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="43" t="s">
+      <c r="N24" s="31" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="11" t="s">
@@ -2149,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2176,7 +2319,7 @@
       <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="25" t="s">
         <v>46</v>
       </c>
@@ -2196,24 +2339,24 @@
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="I28" s="37" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="I28" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
@@ -2463,10 +2606,10 @@
       <c r="I35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="54" t="s">
+      <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="34" t="s">
         <v>45</v>
       </c>
       <c r="L35" s="12"/>
@@ -2477,79 +2620,342 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="45" t="s">
+    <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
-    </row>
-    <row r="37" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="48" t="s">
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="43"/>
+    </row>
+    <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="I37" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="50"/>
-    </row>
-    <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="48" t="s">
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="46"/>
+    </row>
+    <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="50"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="46"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I39" s="48" t="s">
+      <c r="B39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="50"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="46"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="51"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="53"/>
+      <c r="B40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="49"/>
+    </row>
+    <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5">
+        <v>13</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
+    </row>
+    <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6">
+        <v>13</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="I36:P36"/>
-    <mergeCell ref="I37:P37"/>
+  <mergeCells count="15">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B46:H46"/>
     <mergeCell ref="I38:P38"/>
     <mergeCell ref="I39:P39"/>
     <mergeCell ref="I40:P40"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="I37:P37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59031F53-377C-4656-BF4F-35582C0E30BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC766691-0238-4F2C-AD61-89AA2910C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1199,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,11 +1297,50 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1310,15 +1349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,45 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1670,20 +1661,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
@@ -1915,17 +1906,17 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="G10" s="50" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="G10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
@@ -2076,23 +2067,23 @@
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="I19" s="38" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="I19" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
@@ -2101,7 +2092,7 @@
       <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
@@ -2140,7 +2131,7 @@
       <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2179,7 +2170,7 @@
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2218,7 +2209,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
@@ -2255,7 +2246,7 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2292,7 +2283,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2319,7 +2310,7 @@
       <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="25" t="s">
         <v>46</v>
       </c>
@@ -2339,24 +2330,24 @@
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="I28" s="38" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="I28" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
@@ -2606,10 +2597,10 @@
       <c r="I35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="25" t="s">
         <v>45</v>
       </c>
       <c r="L35" s="12"/>
@@ -2621,35 +2612,35 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="43"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="I37" s="44" t="s">
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="I37" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="46"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="44"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
@@ -2667,16 +2658,16 @@
       <c r="F38" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="46"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="44"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
@@ -2694,16 +2685,16 @@
       <c r="F39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="46"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="44"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
@@ -2721,14 +2712,14 @@
       <c r="F40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="49"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="47"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
@@ -2788,15 +2779,15 @@
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="52"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
@@ -2926,13 +2917,13 @@
       <c r="B53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="12"/>

--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC766691-0238-4F2C-AD61-89AA2910C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C6222-C128-4D9F-B306-D3117F37889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +559,46 @@
   </si>
   <si>
     <t>부서 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position - 직급 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1190,6 +1230,26 @@
       <top style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1297,15 +1357,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,6 +1410,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1659,24 +1719,25 @@
     <col min="17" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1690,31 +1751,34 @@
         <v>50</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1728,31 +1792,34 @@
         <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1766,16 +1833,16 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>23</v>
@@ -1784,13 +1851,16 @@
         <v>23</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1804,27 +1874,30 @@
         <v>15</v>
       </c>
       <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
         <v>15</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>10</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
         <v>20</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>320</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>300</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="11">
+      <c r="M5" s="6"/>
+      <c r="N5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1838,7 +1911,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -1849,20 +1922,23 @@
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>5</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1876,11 +1952,12 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="11">
+      <c r="M7" s="6"/>
+      <c r="N7" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1893,32 +1970,40 @@
       <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="51" t="s">
+        <v>137</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="39" t="s">
+    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="G10" s="39" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="G10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="K10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
@@ -1940,8 +2025,17 @@
       <c r="I11" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1963,8 +2057,17 @@
       <c r="I12" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
@@ -1986,8 +2089,17 @@
       <c r="I13" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2121,17 @@
       <c r="I14" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
@@ -2032,8 +2153,17 @@
       <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
@@ -2045,6 +2175,11 @@
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="11"/>
+      <c r="K16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
@@ -2064,26 +2199,33 @@
         <v>27</v>
       </c>
       <c r="I17" s="13"/>
+      <c r="K17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="I19" s="36" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="I19" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
@@ -2092,7 +2234,7 @@
       <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2273,7 @@
       <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2170,7 +2312,7 @@
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2351,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
@@ -2246,7 +2388,7 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2283,7 +2425,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2310,7 +2452,7 @@
       <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="25" t="s">
         <v>46</v>
       </c>
@@ -2330,24 +2472,24 @@
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="I28" s="36" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="I28" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
@@ -2612,35 +2754,35 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="I37" s="42" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="I37" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="44"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
@@ -2658,16 +2800,16 @@
       <c r="F38" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="44"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
@@ -2685,16 +2827,16 @@
       <c r="F39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="44"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
@@ -2712,14 +2854,14 @@
       <c r="F40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I40" s="45"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="47"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="44"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
@@ -2779,15 +2921,15 @@
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="41"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
@@ -2931,8 +3073,8 @@
       <c r="H53" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B1:M1"/>
+  <mergeCells count="16">
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="I19:O19"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B46:H46"/>
@@ -2947,6 +3089,7 @@
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I36:P36"/>
     <mergeCell ref="I37:P37"/>
+    <mergeCell ref="B1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C6222-C128-4D9F-B306-D3117F37889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ED1CF1-464A-4E20-A0E3-8B5FA00B3E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="149">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,6 +599,26 @@
   </si>
   <si>
     <t>Position - 직급 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,18 +660,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -667,19 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,6 +703,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -1259,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1324,19 +1338,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1348,76 +1362,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1702,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1719,25 +1742,25 @@
     <col min="17" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1819,7 +1842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1860,7 +1883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1897,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1938,7 +1961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1957,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1970,7 +1993,7 @@
       <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="33" t="s">
         <v>137</v>
       </c>
       <c r="G8" s="12"/>
@@ -1984,26 +2007,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="36" t="s">
+    <row r="9" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="G10" s="36" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="G10" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="K10" s="33" t="s">
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="K10" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2058,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2066,8 +2089,14 @@
       <c r="M12" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
@@ -2098,8 +2127,14 @@
       <c r="M13" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
@@ -2130,8 +2165,11 @@
       <c r="M14" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
@@ -2209,23 +2247,23 @@
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="I19" s="33" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="I19" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
@@ -2234,7 +2272,7 @@
       <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
@@ -2273,7 +2311,7 @@
       <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2312,7 +2350,7 @@
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2351,7 +2389,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
@@ -2388,7 +2426,7 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2425,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="46"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2452,7 +2490,7 @@
       <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="25" t="s">
         <v>46</v>
       </c>
@@ -2472,24 +2510,24 @@
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="I28" s="33" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="I28" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="35"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
@@ -2754,35 +2792,35 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="50"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="I37" s="39" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="I37" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="36"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
@@ -2800,16 +2838,16 @@
       <c r="F38" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="36"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
@@ -2827,16 +2865,16 @@
       <c r="F39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="36"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
@@ -2854,14 +2892,14 @@
       <c r="F40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="44"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="39"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
@@ -2921,15 +2959,15 @@
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="53"/>
     </row>
     <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
@@ -3074,6 +3112,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="I19:O19"/>
     <mergeCell ref="B37:F37"/>
@@ -3089,7 +3128,6 @@
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I36:P36"/>
     <mergeCell ref="I37:P37"/>
-    <mergeCell ref="B1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ED1CF1-464A-4E20-A0E3-8B5FA00B3E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF258A-54CE-4BE2-912E-192CC6A66E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12450" yWindow="30" windowWidth="16320" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="155">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,22 +226,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>work_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근무형태코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WorkType - 근무형태 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AnnualLeave - 연차 관리 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>current_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오늘 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,18 +378,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ness_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attendance_Record - 출퇴근 기록 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0=정상출근, 1=지각, 2=결석, 3=조퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ness_flag = 1 / 9시 넘어서 출석 체크가 되면 ness_flag 가 0 으로 INSERT 되게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Position - 직급 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하늘색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,6 +591,58 @@
   </si>
   <si>
     <t>노란색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions - 직급 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkTypes - 근무형태 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무형태 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worktype_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worktype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 사용 사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atte_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=정상출근, 1=지각, 2=결석, 3=조퇴, 4=퇴근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1269,11 +1293,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,7 +1456,37 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1410,37 +1525,31 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1725,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1744,21 +1853,21 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
@@ -1771,10 +1880,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>15</v>
@@ -1792,7 +1901,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>19</v>
@@ -1812,10 +1921,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>7</v>
@@ -1833,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>11</v>
@@ -1853,10 +1962,10 @@
         <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>23</v>
@@ -1894,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -1934,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>25</v>
@@ -1945,8 +2054,8 @@
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>25</v>
+      <c r="J6" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>5</v>
@@ -1993,8 +2102,8 @@
       <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>137</v>
+      <c r="F8" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2009,22 +2118,22 @@
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="G10" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="K10" s="46" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="G10" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="K10" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
@@ -2037,25 +2146,25 @@
         <v>32</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>49</v>
@@ -2084,16 +2193,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" s="54" t="s">
-        <v>144</v>
+        <v>128</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2122,16 +2231,16 @@
         <v>2</v>
       </c>
       <c r="L13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2165,8 +2274,8 @@
       <c r="M14" s="11">
         <v>20</v>
       </c>
-      <c r="O14" s="56" t="s">
-        <v>148</v>
+      <c r="O14" s="35" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2195,10 +2304,10 @@
         <v>5</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2241,29 +2350,29 @@
         <v>4</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="I19" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="B19" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="I19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
@@ -2272,7 +2381,7 @@
       <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
@@ -2286,22 +2395,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="N20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="O20" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2311,7 +2420,7 @@
       <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2325,22 +2434,22 @@
         <v>1</v>
       </c>
       <c r="J21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="N21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="O21" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2350,7 +2459,7 @@
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2389,7 +2498,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
@@ -2426,7 +2535,7 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2463,7 +2572,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2599,7 @@
       <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="25" t="s">
         <v>46</v>
       </c>
@@ -2510,67 +2619,71 @@
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="I28" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
+      <c r="B28" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>74</v>
+      <c r="H29" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>13</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2578,43 +2691,46 @@
         <v>1</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>148</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2636,6 +2752,9 @@
       <c r="G31" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="H31" s="64" t="s">
+        <v>149</v>
+      </c>
       <c r="I31" s="8" t="s">
         <v>2</v>
       </c>
@@ -2646,16 +2765,16 @@
         <v>23</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>24</v>
@@ -2674,6 +2793,9 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="11"/>
+      <c r="H32" s="64" t="s">
+        <v>150</v>
+      </c>
       <c r="I32" s="8" t="s">
         <v>3</v>
       </c>
@@ -2708,6 +2830,9 @@
       <c r="G33" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="H33" s="64" t="s">
+        <v>151</v>
+      </c>
       <c r="I33" s="8" t="s">
         <v>5</v>
       </c>
@@ -2738,12 +2863,13 @@
         <v>26</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="11"/>
+      <c r="H34" s="64"/>
       <c r="I34" s="8" t="s">
         <v>26</v>
       </c>
@@ -2774,6 +2900,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="9" t="s">
         <v>4</v>
       </c>
@@ -2788,118 +2915,118 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="13" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45"/>
+      <c r="I36" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
     </row>
     <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="I37" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="36"/>
+      <c r="B37" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="I37" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="46"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="36"/>
+        <v>106</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="46"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="36"/>
+        <v>107</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="46"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="39"/>
+        <v>108</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="49"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
@@ -2910,7 +3037,7 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F41" s="11">
         <v>1</v>
@@ -2921,16 +3048,16 @@
         <v>5</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2949,47 +3076,47 @@
         <v>4</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="53"/>
+      <c r="B46" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
     </row>
     <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2997,22 +3124,22 @@
         <v>1</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3020,22 +3147,22 @@
         <v>2</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3050,7 +3177,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="11"/>
@@ -3060,22 +3187,22 @@
         <v>5</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3083,7 +3210,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3098,13 +3225,13 @@
         <v>4</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -3112,6 +3239,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="I19:O19"/>
@@ -3124,7 +3252,6 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="D20:D26"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I36:P36"/>
     <mergeCell ref="I37:P37"/>

--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF258A-54CE-4BE2-912E-192CC6A66E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1835DC9B-D9BF-4B71-AEC5-BFAE51F8372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="30" windowWidth="16320" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="45" windowWidth="18225" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1465,6 +1465,33 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,33 +1551,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1853,21 +1853,21 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
@@ -2118,22 +2118,22 @@
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="G10" s="38" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="G10" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="K10" s="38" t="s">
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="K10" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
@@ -2356,23 +2356,23 @@
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="I19" s="38" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="I19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="49"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
@@ -2381,7 +2381,7 @@
       <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
@@ -2535,7 +2535,7 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="51"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="25" t="s">
         <v>46</v>
       </c>
@@ -2619,43 +2619,43 @@
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="41" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="43"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="39" t="s">
         <v>71</v>
       </c>
       <c r="H29" s="18" t="s">
@@ -2705,7 +2705,7 @@
       <c r="G30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="40" t="s">
         <v>148</v>
       </c>
       <c r="I30" s="14" t="s">
@@ -2752,7 +2752,7 @@
       <c r="G31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H31" s="41" t="s">
         <v>149</v>
       </c>
       <c r="I31" s="8" t="s">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="64" t="s">
+      <c r="H32" s="41" t="s">
         <v>150</v>
       </c>
       <c r="I32" s="8" t="s">
@@ -2830,7 +2830,7 @@
       <c r="G33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="41" t="s">
         <v>151</v>
       </c>
       <c r="I33" s="8" t="s">
@@ -2869,7 +2869,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="64"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="8" t="s">
         <v>26</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="56"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="9" t="s">
         <v>4</v>
       </c>
@@ -2919,35 +2919,35 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="64"/>
     </row>
     <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="I37" s="44" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="I37" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="46"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="55"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
@@ -2965,16 +2965,16 @@
       <c r="F38" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="46"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="55"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
@@ -2992,16 +2992,16 @@
       <c r="F39" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="46"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="55"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
@@ -3019,14 +3019,14 @@
       <c r="F40" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="49"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
@@ -3086,15 +3086,15 @@
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
@@ -3239,11 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="I38:P38"/>
     <mergeCell ref="I39:P39"/>
@@ -3255,6 +3250,11 @@
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I36:P36"/>
     <mergeCell ref="I37:P37"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\1차 프로젝트 문서\project1-prototype\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1835DC9B-D9BF-4B71-AEC5-BFAE51F8372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B25278-211D-4474-AEE6-659CD2B439E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="45" windowWidth="18225" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="155">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1483,30 +1483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,6 +1510,15 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,6 +1536,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1853,21 +1853,21 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
@@ -2118,22 +2118,22 @@
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="G10" s="47" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="G10" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="K10" s="47" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="K10" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
@@ -2356,23 +2356,23 @@
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="I19" s="47" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="I19" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
@@ -2381,7 +2381,7 @@
       <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
         <v>43</v>
@@ -2535,7 +2535,7 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="60"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="25" t="s">
         <v>46</v>
       </c>
@@ -2619,25 +2619,25 @@
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="50" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="44"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="36" t="s">
@@ -2774,7 +2774,7 @@
         <v>87</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>24</v>
@@ -2806,7 +2806,9 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6">
+        <v>30</v>
+      </c>
       <c r="P32" s="11">
         <v>1</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2883,9 +2885,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
@@ -2919,35 +2919,35 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="62" t="s">
+      <c r="I36" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="59"/>
     </row>
     <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="I37" s="53" t="s">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="I37" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="55"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
@@ -2965,16 +2965,16 @@
       <c r="F38" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="53" t="s">
+      <c r="I38" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="55"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="47"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
@@ -2992,16 +2992,16 @@
       <c r="F39" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="55"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="47"/>
     </row>
     <row r="40" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
@@ -3019,14 +3019,14 @@
       <c r="F40" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="58"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
@@ -3086,15 +3086,15 @@
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="52"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
@@ -3239,6 +3239,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="I38:P38"/>
     <mergeCell ref="I39:P39"/>
@@ -3251,10 +3255,6 @@
     <mergeCell ref="I36:P36"/>
     <mergeCell ref="I37:P37"/>
     <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
